--- a/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
+++ b/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riccardo/Documents/GitHub/COVID19Classification/DatasetsDescription/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88896E25-FBB2-B642-ACAA-9B5598787F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="17480" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -61,77 +55,74 @@
     <t>BM+Dem</t>
   </si>
   <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>483</t>
+    <t>730</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>539</t>
   </si>
   <si>
     <t>1.3%</t>
   </si>
   <si>
+    <t>2.1%</t>
+  </si>
+  <si>
     <t>0.9%</t>
   </si>
   <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>7.0%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
-  </si>
-  <si>
-    <t>206(31.5%)</t>
-  </si>
-  <si>
-    <t>84(32.2%)</t>
-  </si>
-  <si>
-    <t>165(34.2%)</t>
-  </si>
-  <si>
-    <t>68(59-76)</t>
-  </si>
-  <si>
-    <t>66(56-76)</t>
-  </si>
-  <si>
-    <t>67(58-76)</t>
+    <t>6.9%</t>
+  </si>
+  <si>
+    <t>5.3%</t>
+  </si>
+  <si>
+    <t>238(32.6%)</t>
+  </si>
+  <si>
+    <t>102(34.3%)</t>
+  </si>
+  <si>
+    <t>189(35.1%)</t>
+  </si>
+  <si>
+    <t>69(59-77)</t>
+  </si>
+  <si>
+    <t>67(56-78)</t>
+  </si>
+  <si>
+    <t>68(58-77)</t>
   </si>
   <si>
     <t>9(7-12)</t>
   </si>
   <si>
-    <t>137(20.9%)</t>
-  </si>
-  <si>
-    <t>64(24.5%)</t>
-  </si>
-  <si>
-    <t>104(21.5%)</t>
-  </si>
-  <si>
-    <t>160(24.4%)</t>
-  </si>
-  <si>
-    <t>61(23.4%)</t>
-  </si>
-  <si>
-    <t>96(19.9%)</t>
+    <t>142(19.5%)</t>
+  </si>
+  <si>
+    <t>66(22.2%)</t>
+  </si>
+  <si>
+    <t>108(20.0%)</t>
+  </si>
+  <si>
+    <t>182(24.9%)</t>
+  </si>
+  <si>
+    <t>70(23.6%)</t>
+  </si>
+  <si>
+    <t>112(20.8%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,21 +185,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -280,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,10 +297,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -532,22 +513,22 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,22 +539,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -584,22 +565,22 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,25 +588,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -633,25 +614,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -659,22 +640,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
